--- a/dom.xlsx
+++ b/dom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namtrantuan\Desktop\passenger_forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F56908-421F-4014-9CAF-AB899382BC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD7C785-AE45-49F8-AD01-96EF7D78903D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{9B6DF631-33CE-46E9-94FF-7A438F96456C}"/>
   </bookViews>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4533DA13-A95E-43F7-8B52-5A4F15EFCC54}">
   <dimension ref="A1:C2978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2931" workbookViewId="0">
+      <selection activeCell="B2944" sqref="B2944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
